--- a/道家/卒論/data/実験ログ.xlsx
+++ b/道家/卒論/data/実験ログ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uswk0\OneDrive\ドキュメント\GitHub\test-open\道家\卒論\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12F60A-3DD6-494C-A030-BB0331AA4144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E7942-2C52-4935-962D-1D7D31031CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0A2F929E-6DBB-48FE-8ADC-B73AD3D4EA9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>TF(kV)</t>
     <phoneticPr fontId="1"/>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>なおった？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磁気面みるとプラズマついてない</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴスキーの波形変</t>
+    <rPh sb="6" eb="8">
+      <t>ハケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44867704-A53A-4C52-9619-E3B7F969EF1D}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -788,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>18</v>
       </c>
@@ -797,6 +824,33 @@
       </c>
       <c r="F35" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>230119</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/道家/卒論/data/実験ログ.xlsx
+++ b/道家/卒論/data/実験ログ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uswk0\OneDrive\ドキュメント\GitHub\test-open\道家\卒論\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E7942-2C52-4935-962D-1D7D31031CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841878A1-C6D8-4751-9863-39244DD22C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0A2F929E-6DBB-48FE-8ADC-B73AD3D4EA9C}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7810" xr2:uid="{0A2F929E-6DBB-48FE-8ADC-B73AD3D4EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>TF(kV)</t>
     <phoneticPr fontId="1"/>
@@ -150,6 +150,51 @@
     <t>失敗</t>
     <rPh sb="0" eb="2">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch22復活</t>
+    <rPh sb="4" eb="6">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vaccum ch22だめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>230125はセパレーションあたりまで引いた状態</t>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はるさんと実験したのが最初の3つ</t>
+    <rPh sb="5" eb="7">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RC平均</t>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめて積分器つけた</t>
+    <rPh sb="4" eb="7">
+      <t>セキブンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44867704-A53A-4C52-9619-E3B7F969EF1D}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -815,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>18</v>
       </c>
@@ -826,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>230119</v>
       </c>
@@ -837,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <v>14</v>
       </c>
@@ -845,12 +890,191 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <v>50</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>230125</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44">
+        <v>1.7655531727551969E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <v>1.8524355411979901E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47">
+        <v>1.7552481965838598E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48">
+        <v>1.7575612966407601E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49">
+        <v>1.7832955968472199E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50">
+        <v>1.7733391752001601E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51">
+        <v>1.73173674337244E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52">
+        <v>1.7716543522934398E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53">
+        <v>1.7916596502906699E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54">
+        <v>1.8046272442407699E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55">
+        <v>1.7595905717428102E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56">
+        <v>1.73665515720514E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57">
+        <v>1.8328272083240098E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58">
+        <v>1.7695018361327499E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59">
+        <v>1.7348548427909598E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60">
+        <v>1.7489865501804099E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61">
+        <v>1.6828434790095801E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62">
+        <v>1.78187987899915E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63">
+        <v>1.6926422822218699E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64">
+        <v>1.7479400945964601E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65">
+        <v>1.75703588024766E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66">
+        <v>1.7983028478669501E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67">
+        <v>1.7883339741924398E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68">
+        <v>1.78586847259176E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69">
+        <v>1.7344552733554602E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <f>AVERAGE(B46:B69)</f>
+        <v>1.7655531727551969E-2</v>
       </c>
     </row>
   </sheetData>
